--- a/DataVizWIP.xlsx
+++ b/DataVizWIP.xlsx
@@ -18365,7 +18365,7 @@
   <dimension ref="D18:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
